--- a/results.xlsx
+++ b/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,16 +479,26 @@
           <t>GPT Output</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>OCR</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1F DIGO Beheer B.V. - BTW en BTW-id.pdf</t>
+          <t>1A DIGO Beheer B.V. - Uittreksel KvK.pdf</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Company</t>
+          <t>SAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -498,11 +508,13 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Full_name</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>2024</v>
+          <t>JHON</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>N_A</t>
+        </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -511,29 +523,39 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>XN_A Company - Full_name Mededeling Vaststelling Belastingplicht 2024.pdf</t>
+          <t>N_A SAND - JHON N_A.pdf</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Document does not match any known document code criteria; lacks specific tax return or assessment details.</t>
+          <t>GPT Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>{'year': '2024', 'code': 'N_A', 'filename': 'XN_A Company - Full_name Mededeling Vaststelling Belastingplicht 2024', 'warnings': 'Document does not match any known document code criteria; lacks specific tax return or assessment details.'}</t>
+          <t>{'year': 'N_A', 'code': 'N_A', 'filename': 'N_A SAND - JHON N_A', 'warnings': "GPT Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}"}</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>OCR used for empty PDF</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>E4.1 Joel Vegt Design - J.A.I. Vegt Giften Wereld Natuur Fonds 2023.docx</t>
+          <t>1F DIGO Beheer B.V. - BTW en BTW-id.pdf</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Company</t>
+          <t>SAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -543,7 +565,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Full_name</t>
+          <t>JHON</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -553,69 +575,1400 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>E4.1</t>
+          <t>N_A</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>E4.1 Company - Full_name Giften WNF N_A.docx</t>
+          <t>N_A SAND - JHON N_A.pdf</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Document year not detectable; multiple bank accounts mentioned (ING, ASN) but not relevant for document code determination.</t>
+          <t>GPT Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>{'year': 'N_A', 'code': 'E4.1', 'filename': 'E4.1 Company - Full_name Giften WNF N_A', 'warnings': 'Document year not detectable; multiple bank accounts mentioned (ING, ASN) but not relevant for document code determination.'}</t>
+          <t>{'year': 'N_A', 'code': 'N_A', 'filename': 'N_A SAND - JHON N_A', 'warnings': "GPT Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}"}</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>OCR used for empty PDF</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>E4 Blue Planet Proffesional - V Uren registratie Projecten 2023.docx</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>SAND</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>JHON</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>N_A</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>N_A</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>N_A SAND - JHON N_A.docx</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>GPT Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>{'year': 'N_A', 'code': 'N_A', 'filename': 'N_A SAND - JHON N_A', 'warnings': "GPT Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}"}</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>E4 BluMallow - V (Foutief) Hypotheekoverzicht 2023.docx</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>SAND</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>JHON</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>N_A</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>N_A</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>N_A SAND - JHON N_A.docx</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>GPT Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>{'year': 'N_A', 'code': 'N_A', 'filename': 'N_A SAND - JHON N_A', 'warnings': "GPT Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}"}</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>E4.1 Joel Vegt Design - J.A.I. Vegt Giften Wereld Natuur Fonds 2023.docx</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>SAND</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>JHON</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>N_A</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>N_A</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>N_A SAND - JHON N_A.docx</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>GPT Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>{'year': 'N_A', 'code': 'N_A', 'filename': 'N_A SAND - JHON N_A', 'warnings': "GPT Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}"}</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>E4.1 Rosies - T. Daems UPO 2024.png</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Full_name</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>N_A</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>XN_A Kadco BV - E.F. Jansen Uniform Pensioenoverzicht ABP 2024.png</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Document does not match any specific document code criteria; related to pension overview from ABP.</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>{'year': '2024', 'code': 'N_A', 'filename': 'XN_A Kadco BV - E.F. Jansen Uniform Pensioenoverzicht ABP 2024', 'warnings': 'Document does not match any specific document code criteria; related to pension overview from ABP.'}</t>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>SAND</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>JHON</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>N_A</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>N_A</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>N_A SAND - JHON N_A.png</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>GPT Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>{'year': 'N_A', 'code': 'N_A', 'filename': 'N_A SAND - JHON N_A', 'warnings': "GPT Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}"}</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>E4.1 Willeshead B.V. - V H.D.H. Kiewiet Arbeidsinkomen Loondienst De Romein INfra en Milieu B.V. BV 2024.jpeg</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>SAND</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>JHON</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>N_A</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>N_A</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>N_A SAND - JHON N_A.jpeg</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>GPT Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>{'year': 'N_A', 'code': 'N_A', 'filename': 'N_A SAND - JHON N_A', 'warnings': "GPT Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}"}</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>E4.3 Joel Vegt Design - J.A.I. Vegt Cryptocurrency waardes 31-12-2023.docx</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>SAND</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>JHON</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>N_A</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>N_A</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>N_A SAND - JHON N_A.docx</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>GPT Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>{'year': 'N_A', 'code': 'N_A', 'filename': 'N_A SAND - JHON N_A', 'warnings': "GPT Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}"}</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>E4.3 Swipe Up B.V. - A.C.E. Olinger Box 3 Banktegoeden N26 Spaarrekening.png</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>SAND</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>JHON</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>N_A</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>N_A</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>N_A SAND - JHON N_A.png</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>GPT Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>{'year': 'N_A', 'code': 'N_A', 'filename': 'N_A SAND - JHON N_A', 'warnings': "GPT Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}"}</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>inp.pdf3.pdf</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>SAND</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>JHON</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>N_A</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>N_A</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>N_A SAND - JHON N_A.pdf</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>GPT Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>{'year': 'N_A', 'code': 'N_A', 'filename': 'N_A SAND - JHON N_A', 'warnings': "GPT Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}"}</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Screenshot (12).png</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>SAND</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>JHON</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>N_A</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>N_A</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>N_A SAND - JHON N_A.png</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>GPT Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>{'year': 'N_A', 'code': 'N_A', 'filename': 'N_A SAND - JHON N_A', 'warnings': "GPT Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}"}</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Screenshot.png</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>SAND</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>JHON</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>N_A</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>N_A</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>N_A SAND - JHON N_A.png</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>GPT Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>{'year': 'N_A', 'code': 'N_A', 'filename': 'N_A SAND - JHON N_A', 'warnings': "GPT Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}"}</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>OCR failed on image</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>1A DIGO Beheer B.V. - Uittreksel KvK.pdf</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>FX</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>UMAIS</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>N_A</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>N_A</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>N_A FX - UMAIS N_A.pdf</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>GPT Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>{'year': 'N_A', 'code': 'N_A', 'filename': 'N_A FX - UMAIS N_A', 'warnings': "GPT Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}"}</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>OCR used for empty PDF</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>1F DIGO Beheer B.V. - BTW en BTW-id.pdf</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>FX</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>UMAIS</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>N_A</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>N_A</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>N_A FX - UMAIS N_A.pdf</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>GPT Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>{'year': 'N_A', 'code': 'N_A', 'filename': 'N_A FX - UMAIS N_A', 'warnings': "GPT Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}"}</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>OCR used for empty PDF</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>E4 Blue Planet Proffesional - V Uren registratie Projecten 2023.docx</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>FX</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>UMAIS</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>N_A</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>N_A</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>N_A FX - UMAIS N_A.docx</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>GPT Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>{'year': 'N_A', 'code': 'N_A', 'filename': 'N_A FX - UMAIS N_A', 'warnings': "GPT Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}"}</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>E4 BluMallow - V (Foutief) Hypotheekoverzicht 2023.docx</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>FX</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>UMAIS</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>N_A</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>N_A</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>N_A FX - UMAIS N_A.docx</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>GPT Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>{'year': 'N_A', 'code': 'N_A', 'filename': 'N_A FX - UMAIS N_A', 'warnings': "GPT Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}"}</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>E4.1 Joel Vegt Design - J.A.I. Vegt Giften Wereld Natuur Fonds 2023.docx</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>FX</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>UMAIS</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>N_A</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>N_A</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>N_A FX - UMAIS N_A.docx</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>GPT Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>{'year': 'N_A', 'code': 'N_A', 'filename': 'N_A FX - UMAIS N_A', 'warnings': "GPT Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}"}</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>E4.1 Rosies - T. Daems UPO 2024.png</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>FX</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>UMAIS</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>N_A</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>N_A</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>N_A FX - UMAIS N_A.png</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>GPT Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>{'year': 'N_A', 'code': 'N_A', 'filename': 'N_A FX - UMAIS N_A', 'warnings': "GPT Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}"}</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>E4.1 Willeshead B.V. - V H.D.H. Kiewiet Arbeidsinkomen Loondienst De Romein INfra en Milieu B.V. BV 2024.jpeg</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>FX</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>UMAIS</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>N_A</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>N_A</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>N_A FX - UMAIS N_A.jpeg</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>GPT Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>{'year': 'N_A', 'code': 'N_A', 'filename': 'N_A FX - UMAIS N_A', 'warnings': "GPT Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}"}</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>E4.3 Joel Vegt Design - J.A.I. Vegt Cryptocurrency waardes 31-12-2023.docx</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>FX</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>UMAIS</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>N_A</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>N_A</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>N_A FX - UMAIS N_A.docx</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>GPT Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>{'year': 'N_A', 'code': 'N_A', 'filename': 'N_A FX - UMAIS N_A', 'warnings': "GPT Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}"}</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>E4.3 Swipe Up B.V. - A.C.E. Olinger Box 3 Banktegoeden N26 Spaarrekening.png</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>FX</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>UMAIS</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>N_A</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>N_A</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>N_A FX - UMAIS N_A.png</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>GPT Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>{'year': 'N_A', 'code': 'N_A', 'filename': 'N_A FX - UMAIS N_A', 'warnings': "GPT Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}"}</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>inp.pdf3.pdf</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>FX</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>UMAIS</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>N_A</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>N_A</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>N_A FX - UMAIS N_A.pdf</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>GPT Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>{'year': 'N_A', 'code': 'N_A', 'filename': 'N_A FX - UMAIS N_A', 'warnings': "GPT Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}"}</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Screenshot (12).png</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>FX</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>UMAIS</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>N_A</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>N_A</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>N_A FX - UMAIS N_A.png</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>GPT Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>{'year': 'N_A', 'code': 'N_A', 'filename': 'N_A FX - UMAIS N_A', 'warnings': "GPT Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}"}</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Screenshot.png</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>FX</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>UMAIS</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>N_A</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>N_A</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>N_A FX - UMAIS N_A.png</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>GPT Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>{'year': 'N_A', 'code': 'N_A', 'filename': 'N_A FX - UMAIS N_A', 'warnings': "GPT Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}"}</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>OCR failed on image</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>SDLC_Guide (1).pdf</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>FX</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>UMAIS</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>N_A</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>N_A</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>N_A FX - UMAIS N_A.pdf</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>GPT Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>{'year': 'N_A', 'code': 'N_A', 'filename': 'N_A FX - UMAIS N_A', 'warnings': "GPT Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}"}</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>SDLC_Guide (2).pdf</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>FX</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>UMAIS</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>N_A</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>N_A</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>N_A FX - UMAIS N_A.pdf</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>GPT Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>{'year': 'N_A', 'code': 'N_A', 'filename': 'N_A FX - UMAIS N_A', 'warnings': "GPT Error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}"}</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
     </row>
